--- a/biology/Zoologie/Cyclichthys_orbicularis/Cyclichthys_orbicularis.xlsx
+++ b/biology/Zoologie/Cyclichthys_orbicularis/Cyclichthys_orbicularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclichthys orbicularis · Poisson porc-épic orbiculaire, Poisson porc-épine bécard
-Cyclichthys orbicularis, communément nommé Poisson porc-épic orbiculaire ou Poisson porc-épine bécard[2], est une espèce de poissons marins de la famille des Diodontidae.
-Le Poisson porc-épic orbiculaire est présent dans les eaux tropicales de la région Indo-Ouest Pacifique, de la Mer Rouge aux Philippines[1].
-Sa taille maximale est de 30 cm [1].
+Cyclichthys orbicularis, communément nommé Poisson porc-épic orbiculaire ou Poisson porc-épine bécard, est une espèce de poissons marins de la famille des Diodontidae.
+Le Poisson porc-épic orbiculaire est présent dans les eaux tropicales de la région Indo-Ouest Pacifique, de la Mer Rouge aux Philippines.
+Sa taille maximale est de 30 cm .
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes taxonomiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Atinga orbicularis coeruleus le Danois, 1959
 Chilomycterus orbicularis (Bloch, 1785)
